--- a/ILabApplication/Default.xlsx
+++ b/ILabApplication/Default.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="readFromExcel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -218,10 +219,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -525,15 +526,17 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="11.93359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.10546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.97265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.93359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.10546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.97265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -551,13 +554,13 @@
       </c>
     </row>
     <row>
-      <c s="1" t="s">
+      <c s="2" t="s">
         <v>6</v>
       </c>
-      <c s="1" t="s">
+      <c s="2" t="s">
         <v>4</v>
       </c>
-      <c s="1">
+      <c s="2">
         <v>834725363</v>
       </c>
       <c s="3" t="s">
@@ -573,13 +576,32 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/ILabApplication/Default.xlsx
+++ b/ILabApplication/Default.xlsx
@@ -219,10 +219,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -532,11 +532,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="11.93359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.10546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.97265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.93359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.10546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.97265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -554,13 +554,13 @@
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>6</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>4</v>
       </c>
-      <c s="2">
+      <c s="1">
         <v>834725363</v>
       </c>
       <c s="3" t="s">
@@ -582,7 +582,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
@@ -601,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/ILabApplication/Default.xlsx
+++ b/ILabApplication/Default.xlsx
@@ -219,10 +219,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -532,11 +532,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="11.93359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.10546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.97265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.93359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.10546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.97265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -554,13 +554,13 @@
       </c>
     </row>
     <row>
-      <c s="1" t="s">
+      <c s="2" t="s">
         <v>6</v>
       </c>
-      <c s="1" t="s">
+      <c s="2" t="s">
         <v>4</v>
       </c>
-      <c s="1">
+      <c s="2">
         <v>834725363</v>
       </c>
       <c s="3" t="s">
@@ -582,7 +582,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
@@ -601,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
